--- a/tests/fixtures/verification/cases/stochastic/00007_hybrid/00007_hybrid-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00007_hybrid/00007_hybrid-wc_lang.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="4540" windowWidth="35440" windowHeight="4140" tabRatio="500" firstSheet="4" activeTab="8"/>
-    <workbookView xWindow="380" yWindow="460" windowWidth="34560" windowHeight="4360" tabRatio="500" firstSheet="1" activeTab="10"/>
-    <workbookView xWindow="460" yWindow="13460" windowWidth="30560" windowHeight="6940" tabRatio="500" firstSheet="8" activeTab="16"/>
-    <workbookView xWindow="420" yWindow="8680" windowWidth="30040" windowHeight="4620" tabRatio="500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="300" yWindow="4740" windowWidth="35440" windowHeight="4140" tabRatio="500" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="34560" windowHeight="4720" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="460" yWindow="13460" windowWidth="30560" windowHeight="6940" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="420" yWindow="8200" windowWidth="30040" windowHeight="5100" tabRatio="500" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4231,7 +4231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="198">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4749,69 +4749,15 @@
     <t>gram / liter</t>
   </si>
   <si>
-    <t>These MWs balance the reactions</t>
-  </si>
-  <si>
     <t>liter</t>
   </si>
   <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>vol_c</t>
-  </si>
-  <si>
-    <t>Volume of compartment c</t>
-  </si>
-  <si>
-    <t>1 / (Avogadro * vol_c)</t>
-  </si>
-  <si>
-    <t>pop_2_conc</t>
-  </si>
-  <si>
-    <t>Convert population to concentration</t>
-  </si>
-  <si>
-    <t>From scipy 1.3.1; will be updated to 2019 SI value eventually</t>
-  </si>
-  <si>
-    <t>mole / (molecule liter)</t>
-  </si>
-  <si>
-    <t>1 / mole</t>
-  </si>
-  <si>
-    <t>molecule / mole</t>
-  </si>
-  <si>
     <t>abstract_compartment</t>
   </si>
   <si>
-    <t>conv</t>
-  </si>
-  <si>
-    <t>Conversion factor for rate laws</t>
-  </si>
-  <si>
-    <t>Avogadro * rl_units_conv</t>
-  </si>
-  <si>
     <t>Density compt. C</t>
   </si>
   <si>
-    <t>Must equal volume of c in Compartments</t>
-  </si>
-  <si>
-    <t>rl_units_conv</t>
-  </si>
-  <si>
-    <t>Units conversion</t>
-  </si>
-  <si>
-    <t>1 / molecule</t>
-  </si>
-  <si>
     <t>test_case_00007_hybrid</t>
   </si>
   <si>
@@ -4876,15 +4822,17 @@
   </si>
   <si>
     <t>dist-init-conc-Sink[c]</t>
+  </si>
+  <si>
+    <t>The reactions cannot be balanced with non-zero MWs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -5016,7 +4964,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5050,9 +4998,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5093,8 +5038,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5135,15 +5078,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5943,18 +5877,18 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="2"/>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
@@ -5965,9 +5899,9 @@
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5978,13 +5912,13 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -6004,18 +5938,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>181</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6023,18 +5949,10 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>182</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6043,9 +5961,9 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6054,9 +5972,9 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6065,9 +5983,9 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6076,9 +5994,9 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6119,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
     <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
       <selection activeCell="B2" sqref="B2"/>
@@ -6161,13 +6079,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6222,16 +6140,16 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -6250,16 +6168,16 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -6279,7 +6197,6 @@
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -6543,18 +6460,18 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>169</v>
@@ -6567,18 +6484,18 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>169</v>
@@ -7431,8 +7348,8 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="2">
+      <selection activeCell="A8" sqref="A6:XFD8"/>
     </sheetView>
     <sheetView workbookViewId="3"/>
   </sheetViews>
@@ -7441,9 +7358,9 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
@@ -7457,9 +7374,9 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7476,13 +7393,13 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7501,58 +7418,58 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0.1</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>212</v>
+      <c r="F3" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.11</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>212</v>
+      <c r="F4" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>171</v>
       </c>
       <c r="G5" s="3"/>
@@ -7561,131 +7478,65 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28">
-        <v>6.0221408570000002E+23</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="44" t="s">
-        <v>180</v>
-      </c>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="45">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>173</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="21" t="s">
-        <v>189</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:K2"/>
   <dataValidations count="11">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G9:G10"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H9:H10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I9:I10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J9:J10">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G6:G7"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H6:H7"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I6:I7"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J6:J7">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E9:E10 E3:E4">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E6:E7 E3:E4">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10 A3:A4">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A6:A7 A3:A4">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D9:D10 D3:D4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D6:D7 D3:D4">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K9:K10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10 B3:B4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K6:K7"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B6:B7 B3:B4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C9:C10 C3:C4">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C6:C7 C3:C4">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F9:F10 F3:F4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F6:F7 F3:F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7935,42 +7786,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="41" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="41" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8421,7 +8272,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8439,7 +8290,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8850,10 +8701,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -10451,13 +10302,13 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -10576,8 +10427,8 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
-    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
@@ -10626,29 +10477,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="41" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="41" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10722,37 +10573,37 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="29">
         <v>1</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>162</v>
       </c>
       <c r="M4" s="3"/>
@@ -10774,9 +10625,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -11047,8 +10898,8 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView showRowColHeaders="0" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1">
+      <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
@@ -11057,7 +10908,9 @@
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="14" width="15.6640625" customWidth="1"/>
+    <col min="4" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="44.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11082,22 +10935,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11151,59 +11004,59 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <v>1</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="26">
         <v>0</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="39" t="s">
         <v>163</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="42" t="s">
-        <v>172</v>
+      <c r="M4" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <v>1</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="26">
         <v>0</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="39" t="s">
         <v>163</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="42" t="s">
-        <v>172</v>
+      <c r="M5" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -11416,11 +11269,11 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>156</v>
@@ -11436,11 +11289,11 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>156</v>
@@ -11575,7 +11428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
     <sheetView showRowColHeaders="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="1">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -11645,11 +11500,11 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
         <v>161</v>
@@ -11657,7 +11512,7 @@
       <c r="E3" s="11">
         <v>100</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -11671,11 +11526,11 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
         <v>161</v>
@@ -11683,7 +11538,7 @@
       <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" t="s">

--- a/tests/fixtures/verification/cases/stochastic/00007_hybrid/00007_hybrid-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00007_hybrid/00007_hybrid-wc_lang.xlsx
@@ -2935,7 +2935,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3167,7 +3167,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="21" t="n"/>
@@ -3354,7 +3354,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3746,7 +3746,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4038,7 +4038,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4317,7 +4317,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4561,7 +4561,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4830,7 +4830,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5070,7 +5070,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5296,7 +5296,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5835,7 +5835,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6165,7 +6165,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6338,7 +6338,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6682,7 +6682,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7087,7 +7087,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7381,7 +7381,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7760,7 +7760,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7939,7 +7939,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8128,7 +8128,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8365,7 +8365,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8877,7 +8877,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9225,7 +9225,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9476,7 +9476,7 @@
     <row r="1" ht="15" customHeight="1" s="37">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
